--- a/·guidelines/课表.xlsx
+++ b/·guidelines/课表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000" activeTab="6"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="大一上" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="大三上" sheetId="6" r:id="rId5"/>
     <sheet name="大三下" sheetId="7" r:id="rId6"/>
     <sheet name="大四上" sheetId="8" r:id="rId7"/>
+    <sheet name="大四下" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="282">
   <si>
     <t>大一上</t>
   </si>
@@ -820,30 +821,30 @@
     <t>大四上</t>
   </si>
   <si>
-    <t>古文字与中国历史文化</t>
-  </si>
-  <si>
-    <t>张钊</t>
+    <t>中文写作与语言认知</t>
+  </si>
+  <si>
+    <t>李蓝</t>
+  </si>
+  <si>
+    <t>分布与云计算</t>
+  </si>
+  <si>
+    <t>Georgios Theodoropoulos</t>
+  </si>
+  <si>
+    <t>三教205</t>
+  </si>
+  <si>
+    <t>中外文化记忆研究</t>
+  </si>
+  <si>
+    <t>王晓葵</t>
   </si>
   <si>
     <t>三教210</t>
   </si>
   <si>
-    <t>分布与云计算</t>
-  </si>
-  <si>
-    <t>Georgios Theodoropoulos</t>
-  </si>
-  <si>
-    <t>三教206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中外文化记忆研究 </t>
-  </si>
-  <si>
-    <t>王晓葵</t>
-  </si>
-  <si>
     <t>前沿讲座III-01班</t>
   </si>
   <si>
@@ -851,6 +852,36 @@
   </si>
   <si>
     <t>创新实践III-01班</t>
+  </si>
+  <si>
+    <t>大四下</t>
+  </si>
+  <si>
+    <t>多媒体信息处理</t>
+  </si>
+  <si>
+    <t>刘江</t>
+  </si>
+  <si>
+    <t>一教324</t>
+  </si>
+  <si>
+    <t>中华经典导读</t>
+  </si>
+  <si>
+    <t>环境政策与治理</t>
+  </si>
+  <si>
+    <t>前沿讲座 IV</t>
+  </si>
+  <si>
+    <t>孙顺</t>
+  </si>
+  <si>
+    <t>王雨</t>
+  </si>
+  <si>
+    <t>商学院225</t>
   </si>
 </sst>
 </file>
@@ -1087,25 +1118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,12 +1161,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,19 +2191,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,10 +2221,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2193,148 +2230,154 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,22 +2386,10 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,13 +2419,13 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2403,28 +2434,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2463,16 +2494,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2520,22 +2551,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2661,31 +2692,31 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,31 +2764,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,322 +2908,322 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3942,10 +3973,10 @@
       <c r="N11" s="333" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="65" t="s">
+      <c r="O11" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="71" t="s">
         <v>76</v>
       </c>
       <c r="Q11" s="87"/>
@@ -4031,10 +4062,10 @@
         <v>62</v>
       </c>
       <c r="E15" s="270"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="57"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="286"/>
       <c r="I15" s="287"/>
       <c r="J15" s="284"/>
@@ -4052,10 +4083,10 @@
         <v>67</v>
       </c>
       <c r="E16" s="276"/>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="290"/>
       <c r="I16" s="291"/>
       <c r="J16" s="288"/>
@@ -4516,7 +4547,7 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
@@ -4540,7 +4571,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="187" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4607,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="236" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4657,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="196"/>
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
@@ -4670,7 +4701,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="194"/>
       <c r="O4" s="107"/>
       <c r="P4" s="107"/>
@@ -4702,7 +4733,7 @@
       <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="140"/>
       <c r="C6" s="141"/>
       <c r="D6" s="140"/>
@@ -4774,7 +4805,7 @@
       <c r="R8" s="122"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="171" t="s">
         <v>109</v>
       </c>
@@ -4856,7 +4887,7 @@
       <c r="R11" s="120"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="155" t="s">
         <v>117</v>
       </c>
@@ -4936,7 +4967,7 @@
       <c r="R14" s="122"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="140"/>
       <c r="C15" s="141"/>
       <c r="D15" s="171" t="s">
@@ -4980,7 +5011,7 @@
       <c r="R16" s="124"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="152" t="s">
@@ -5010,7 +5041,7 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="159" t="s">
         <v>126</v>
       </c>
@@ -5038,7 +5069,7 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="32"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="166" t="s">
         <v>127</v>
       </c>
@@ -5088,7 +5119,7 @@
       <c r="R20" s="90"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="140"/>
       <c r="C21" s="141"/>
       <c r="D21" s="140"/>
@@ -5150,7 +5181,7 @@
       <c r="R23" s="90"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="140"/>
       <c r="C24" s="141"/>
       <c r="D24" s="140"/>
@@ -5211,7 +5242,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="97"/>
-      <c r="B27" s="44"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="186"/>
       <c r="D27" s="186"/>
       <c r="E27" s="186"/>
@@ -5222,14 +5253,14 @@
       <c r="J27" s="186"/>
       <c r="K27" s="186"/>
       <c r="L27" s="186"/>
-      <c r="M27" s="62"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="90"/>
       <c r="Q27" s="90"/>
       <c r="R27" s="90"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="97"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="186"/>
       <c r="D28" s="186"/>
       <c r="E28" s="186"/>
@@ -5240,14 +5271,14 @@
       <c r="J28" s="186"/>
       <c r="K28" s="186"/>
       <c r="L28" s="186"/>
-      <c r="M28" s="62"/>
+      <c r="M28" s="68"/>
       <c r="N28" s="90"/>
       <c r="Q28" s="90"/>
       <c r="R28" s="90"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="97"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="186"/>
       <c r="D29" s="186"/>
       <c r="E29" s="186"/>
@@ -5258,25 +5289,25 @@
       <c r="J29" s="186"/>
       <c r="K29" s="186"/>
       <c r="L29" s="186"/>
-      <c r="M29" s="62"/>
+      <c r="M29" s="68"/>
       <c r="N29" s="90"/>
       <c r="Q29" s="90"/>
       <c r="R29" s="90"/>
     </row>
     <row r="30" ht="14.75" spans="1:18">
       <c r="A30" s="98"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="64"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="Q30" s="90"/>
       <c r="R30" s="90"/>
@@ -5469,7 +5500,7 @@
   <sheetPr/>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
@@ -5493,7 +5524,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="187" t="s">
         <v>129</v>
       </c>
@@ -5530,7 +5561,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="188" t="s">
         <v>9</v>
       </c>
@@ -5684,7 +5715,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="140"/>
       <c r="C6" s="141"/>
       <c r="D6" s="142" t="s">
@@ -5775,7 +5806,7 @@
       <c r="S8" s="122"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="155" t="s">
         <v>152</v>
       </c>
@@ -5886,7 +5917,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="142" t="s">
         <v>142</v>
       </c>
@@ -5987,7 +6018,7 @@
       <c r="S14" s="124"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="140"/>
       <c r="C15" s="90"/>
       <c r="D15" s="155" t="s">
@@ -6035,7 +6066,7 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="105"/>
@@ -6054,7 +6085,7 @@
       <c r="M17" s="120"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="140"/>
       <c r="C18" s="141"/>
       <c r="D18" s="180" t="s">
@@ -6077,7 +6108,7 @@
       <c r="S18" s="90"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="32"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="107"/>
       <c r="C19" s="121"/>
       <c r="D19" s="182" t="s">
@@ -6123,7 +6154,7 @@
       <c r="S20" s="90"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="140"/>
       <c r="C21" s="141"/>
       <c r="D21" s="140"/>
@@ -6188,7 +6219,7 @@
       <c r="S23" s="90"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="140"/>
       <c r="C24" s="141"/>
       <c r="D24" s="140"/>
@@ -6252,7 +6283,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="97"/>
-      <c r="B27" s="44"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="186"/>
       <c r="D27" s="186"/>
       <c r="E27" s="186"/>
@@ -6263,7 +6294,7 @@
       <c r="J27" s="186"/>
       <c r="K27" s="186"/>
       <c r="L27" s="186"/>
-      <c r="M27" s="62"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="90"/>
       <c r="Q27" s="90"/>
       <c r="R27" s="90"/>
@@ -6271,7 +6302,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="97"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="186"/>
       <c r="D28" s="186"/>
       <c r="E28" s="186"/>
@@ -6282,7 +6313,7 @@
       <c r="J28" s="186"/>
       <c r="K28" s="186"/>
       <c r="L28" s="186"/>
-      <c r="M28" s="62"/>
+      <c r="M28" s="68"/>
       <c r="N28" s="90"/>
       <c r="Q28" s="90"/>
       <c r="R28" s="90"/>
@@ -6290,7 +6321,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="97"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="186"/>
       <c r="D29" s="186"/>
       <c r="E29" s="186"/>
@@ -6301,7 +6332,7 @@
       <c r="J29" s="186"/>
       <c r="K29" s="186"/>
       <c r="L29" s="186"/>
-      <c r="M29" s="62"/>
+      <c r="M29" s="68"/>
       <c r="N29" s="90"/>
       <c r="Q29" s="90"/>
       <c r="R29" s="90"/>
@@ -6309,18 +6340,18 @@
     </row>
     <row r="30" ht="14.75" spans="1:19">
       <c r="A30" s="98"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="64"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="Q30" s="90"/>
       <c r="R30" s="90"/>
@@ -6515,8 +6546,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6536,7 +6567,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="100" t="s">
         <v>1</v>
       </c>
@@ -6572,7 +6603,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="101" t="s">
         <v>9</v>
       </c>
@@ -6622,7 +6653,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="104"/>
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
@@ -6666,7 +6697,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="106"/>
       <c r="O4" s="107"/>
       <c r="P4" s="107"/>
@@ -6679,22 +6710,22 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="71" t="s">
         <v>179</v>
       </c>
       <c r="E5" s="87"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="53"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="108"/>
       <c r="O5" s="105"/>
       <c r="P5" s="105"/>
@@ -6702,25 +6733,25 @@
       <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="66" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="72" t="s">
         <v>181</v>
       </c>
       <c r="E6" s="88"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="54"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="106"/>
       <c r="O6" s="107"/>
       <c r="P6" s="107"/>
@@ -6729,24 +6760,24 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="67" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="73" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="89"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="55"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="108"/>
       <c r="O7" s="105"/>
       <c r="P7" s="105"/>
@@ -6759,22 +6790,22 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="75"/>
+      <c r="F8" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="106"/>
       <c r="O8" s="107"/>
       <c r="P8" s="107"/>
@@ -6782,25 +6813,25 @@
       <c r="R8" s="122"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="72" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="54"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="104"/>
       <c r="O9" s="105"/>
       <c r="P9" s="105"/>
@@ -6809,24 +6840,24 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="55"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="109"/>
       <c r="O10" s="107"/>
       <c r="P10" s="107"/>
@@ -6839,24 +6870,24 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="125" t="s">
         <v>193</v>
       </c>
       <c r="G11" s="126"/>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="71" t="s">
         <v>179</v>
       </c>
       <c r="I11" s="87"/>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="56"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="108"/>
       <c r="O11" s="105"/>
       <c r="P11" s="105"/>
@@ -6864,27 +6895,27 @@
       <c r="R11" s="120"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="127" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="128"/>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="72" t="s">
         <v>181</v>
       </c>
       <c r="I12" s="88"/>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="54"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="106"/>
       <c r="O12" s="107"/>
       <c r="P12" s="107"/>
@@ -6893,26 +6924,26 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="129" t="s">
         <v>199</v>
       </c>
       <c r="G13" s="130"/>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="73" t="s">
         <v>200</v>
       </c>
       <c r="I13" s="89"/>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="55"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="104"/>
       <c r="O13" s="105"/>
       <c r="P13" s="105"/>
@@ -6925,10 +6956,10 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -6936,7 +6967,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="109"/>
       <c r="O14" s="107"/>
       <c r="P14" s="107"/>
@@ -6944,21 +6975,21 @@
       <c r="R14" s="122"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="72" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="54"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="104"/>
       <c r="O15" s="105"/>
       <c r="P15" s="105"/>
@@ -6967,20 +6998,20 @@
     </row>
     <row r="16" ht="14.75" spans="1:18">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="55"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="110"/>
       <c r="O16" s="111"/>
       <c r="P16" s="111"/>
@@ -6988,13 +7019,13 @@
       <c r="R16" s="124"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
@@ -7004,7 +7035,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
@@ -7012,21 +7043,21 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="54"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
@@ -7034,21 +7065,21 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="55"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="90"/>
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
@@ -7070,7 +7101,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="53"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
@@ -7078,19 +7109,19 @@
       <c r="R20" s="90"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="54"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="90"/>
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
@@ -7099,18 +7130,18 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="55"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
@@ -7128,11 +7159,11 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="53"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
@@ -7140,19 +7171,19 @@
       <c r="R23" s="90"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="54"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
@@ -7161,18 +7192,18 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="7"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="135"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="135"/>
-      <c r="M25" s="55"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="90"/>
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
@@ -7183,9 +7214,9 @@
       <c r="A26" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="92" t="s">
@@ -7196,9 +7227,9 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="61"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91"/>
       <c r="P26" s="91"/>
@@ -7229,7 +7260,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="97"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="133"/>
       <c r="D28" s="133" t="s">
         <v>206</v>
@@ -7244,7 +7275,7 @@
       <c r="J28" s="134"/>
       <c r="K28" s="133"/>
       <c r="L28" s="133"/>
-      <c r="M28" s="63"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="90"/>
       <c r="O28" s="91"/>
       <c r="P28" s="91"/>
@@ -7275,9 +7306,9 @@
     </row>
     <row r="30" ht="14.75" spans="1:18">
       <c r="A30" s="98"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
         <v>209</v>
       </c>
       <c r="E30" s="99" t="s">
@@ -7288,9 +7319,9 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="64"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="O30" s="91"/>
       <c r="P30" s="91"/>
@@ -7489,7 +7520,7 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7510,7 +7541,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="100" t="s">
         <v>1</v>
       </c>
@@ -7546,7 +7577,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="101" t="s">
         <v>9</v>
       </c>
@@ -7596,7 +7627,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="104"/>
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
@@ -7640,7 +7671,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="106"/>
       <c r="O4" s="107"/>
       <c r="P4" s="107"/>
@@ -7655,16 +7686,16 @@
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="53"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="108"/>
       <c r="O5" s="105"/>
       <c r="P5" s="105"/>
@@ -7672,21 +7703,21 @@
       <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="36" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="54"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="106"/>
       <c r="O6" s="107"/>
       <c r="P6" s="107"/>
@@ -7695,20 +7726,20 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="38" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="55"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="108"/>
       <c r="O7" s="105"/>
       <c r="P7" s="105"/>
@@ -7721,22 +7752,22 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="71" t="s">
         <v>214</v>
       </c>
       <c r="E8" s="87"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="65" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="71" t="s">
         <v>214</v>
       </c>
       <c r="I8" s="87"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="106"/>
       <c r="O8" s="107"/>
       <c r="P8" s="107"/>
@@ -7744,25 +7775,25 @@
       <c r="R8" s="122"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="66" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="72" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="88"/>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="66" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="72" t="s">
         <v>104</v>
       </c>
       <c r="I9" s="88"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="54"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="104"/>
       <c r="O9" s="105"/>
       <c r="P9" s="105"/>
@@ -7771,24 +7802,24 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="73" t="s">
         <v>189</v>
       </c>
       <c r="E10" s="89"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="67" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="73" t="s">
         <v>217</v>
       </c>
       <c r="I10" s="89"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="55"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="109"/>
       <c r="O10" s="107"/>
       <c r="P10" s="107"/>
@@ -7801,22 +7832,22 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="108"/>
       <c r="O11" s="105"/>
       <c r="P11" s="105"/>
@@ -7824,25 +7855,25 @@
       <c r="R11" s="120"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="31" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="63"/>
+      <c r="F12" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="54"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="106"/>
       <c r="O12" s="107"/>
       <c r="P12" s="107"/>
@@ -7851,24 +7882,24 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="33" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="55"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="104"/>
       <c r="O13" s="105"/>
       <c r="P13" s="105"/>
@@ -7890,7 +7921,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="109"/>
       <c r="O14" s="107"/>
       <c r="P14" s="107"/>
@@ -7898,19 +7929,19 @@
       <c r="R14" s="122"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="54"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="104"/>
       <c r="O15" s="105"/>
       <c r="P15" s="105"/>
@@ -7919,18 +7950,18 @@
     </row>
     <row r="16" ht="14.75" spans="1:18">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="55"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="110"/>
       <c r="O16" s="111"/>
       <c r="P16" s="111"/>
@@ -7938,27 +7969,27 @@
       <c r="R16" s="124"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="62"/>
+      <c r="F17" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="70" t="s">
+      <c r="G17" s="59"/>
+      <c r="H17" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
@@ -7966,25 +7997,25 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="30"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="31" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="60"/>
+      <c r="H18" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="54"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
@@ -7992,25 +8023,25 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="32"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="33" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="78" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="55"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="90"/>
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
@@ -8023,10 +8054,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="69"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -8034,7 +8065,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="53"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
@@ -8042,21 +8073,21 @@
       <c r="R20" s="90"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="72" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="54"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="90"/>
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
@@ -8065,20 +8096,20 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="55"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
@@ -8096,11 +8127,11 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="53"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
@@ -8108,19 +8139,19 @@
       <c r="R23" s="90"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="54"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
@@ -8129,18 +8160,18 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="54"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="90"/>
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
@@ -8148,12 +8179,12 @@
       <c r="R25" s="90"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="92" t="s">
         <v>232</v>
       </c>
@@ -8162,8 +8193,8 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="112"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91"/>
@@ -8172,12 +8203,12 @@
       <c r="R26" s="90"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="93" t="s">
         <v>233</v>
       </c>
@@ -8186,8 +8217,8 @@
       <c r="H27" s="93"/>
       <c r="I27" s="93"/>
       <c r="J27" s="93"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="113"/>
       <c r="N27" s="90"/>
       <c r="O27" s="91"/>
@@ -8196,7 +8227,7 @@
       <c r="R27" s="90"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="43"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
@@ -8243,11 +8274,11 @@
     </row>
     <row r="30" ht="14.75" spans="1:18">
       <c r="A30" s="98"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="99" t="s">
         <v>236</v>
       </c>
@@ -8256,9 +8287,9 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="64"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="O30" s="91"/>
       <c r="P30" s="91"/>
@@ -8457,8 +8488,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -8478,7 +8509,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -8507,7 +8538,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7"/>
@@ -8544,7 +8575,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
@@ -8583,7 +8614,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
@@ -8593,62 +8624,62 @@
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="65" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="71" t="s">
         <v>239</v>
       </c>
       <c r="I5" s="87"/>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="71" t="s">
         <v>239</v>
       </c>
       <c r="K5" s="87"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="53"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="66" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="72" t="s">
         <v>240</v>
       </c>
       <c r="I6" s="88"/>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="72" t="s">
         <v>240</v>
       </c>
       <c r="K6" s="88"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="54"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="67" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="73" t="s">
         <v>241</v>
       </c>
       <c r="I7" s="89"/>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="73" t="s">
         <v>242</v>
       </c>
       <c r="K7" s="89"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="55"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
@@ -8656,58 +8687,58 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="75"/>
+      <c r="F8" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="72" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="54"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="76" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="55"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
@@ -8717,58 +8748,58 @@
         <v>248</v>
       </c>
       <c r="C11" s="81"/>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="54"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7"/>
       <c r="B13" s="84"/>
       <c r="C13" s="85"/>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="55"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
@@ -8776,10 +8807,10 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="86" t="s">
@@ -8789,62 +8820,62 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="24" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="82"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="54"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="84"/>
       <c r="I16" s="85"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="55"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
@@ -8852,23 +8883,23 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="30"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="31" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="54"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
@@ -8876,23 +8907,23 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="32"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="33" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="55"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="90"/>
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
@@ -8905,10 +8936,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -8916,7 +8947,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="53"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
@@ -8924,21 +8955,21 @@
       <c r="R20" s="90"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="36" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="54"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="90"/>
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
@@ -8947,20 +8978,20 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="38" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="55"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
@@ -8978,11 +9009,11 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="53"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
@@ -8990,19 +9021,19 @@
       <c r="R23" s="90"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="54"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
@@ -9011,18 +9042,18 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="54"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="90"/>
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
@@ -9030,21 +9061,21 @@
       <c r="R25" s="90"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="61"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91"/>
       <c r="P26" s="91"/>
@@ -9052,19 +9083,19 @@
       <c r="R26" s="90"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="62"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="90"/>
       <c r="O27" s="91"/>
       <c r="P27" s="91"/>
@@ -9072,19 +9103,19 @@
       <c r="R27" s="90"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="63"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="90"/>
       <c r="O28" s="91"/>
       <c r="P28" s="91"/>
@@ -9092,19 +9123,19 @@
       <c r="R28" s="90"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="63"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="90"/>
       <c r="O29" s="91"/>
       <c r="P29" s="91"/>
@@ -9112,19 +9143,19 @@
       <c r="R29" s="90"/>
     </row>
     <row r="30" ht="14.75" spans="1:18">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="64"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="O30" s="91"/>
       <c r="P30" s="91"/>
@@ -9284,8 +9315,8 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -9305,7 +9336,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="51"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -9334,7 +9365,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7"/>
@@ -9371,7 +9402,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
@@ -9410,7 +9441,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
@@ -9420,50 +9451,771 @@
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="53"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="54"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="58"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="57"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="58"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="55"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="56"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="56"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="56"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="31"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="63"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="57"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="37"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="58"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="56"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="56"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="57"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="57"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="67"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="68"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="69"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="69"/>
+    </row>
+    <row r="30" ht="14.75" spans="1:13">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="56"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
@@ -9480,37 +10232,37 @@
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="54"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="55"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
@@ -9518,58 +10270,64 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="D11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="54"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="55"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
@@ -9577,10 +10335,8 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -9588,94 +10344,102 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="54"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="55"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="56"/>
+      <c r="D17" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="62"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="30"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="31" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="54"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="32"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="33" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="55"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
@@ -9683,10 +10447,8 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="35"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -9694,41 +10456,37 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="53"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="54"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="55"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
@@ -9741,118 +10499,118 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="53"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="56"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="54"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="54"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="61"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="67"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="62"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="63"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="63"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" ht="14.75" spans="1:13">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="64"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="144">

--- a/·guidelines/课表.xlsx
+++ b/·guidelines/课表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="284">
   <si>
     <t>大一上</t>
   </si>
@@ -857,31 +857,37 @@
     <t>大四下</t>
   </si>
   <si>
+    <t>体育VI - 健身</t>
+  </si>
+  <si>
+    <t>赵飞</t>
+  </si>
+  <si>
     <t>多媒体信息处理</t>
   </si>
   <si>
+    <t>城市与科技</t>
+  </si>
+  <si>
+    <t>古典小说选讲</t>
+  </si>
+  <si>
     <t>刘江</t>
   </si>
   <si>
+    <t>王莉莉</t>
+  </si>
+  <si>
+    <t>高斌</t>
+  </si>
+  <si>
     <t>一教324</t>
   </si>
   <si>
-    <t>中华经典导读</t>
-  </si>
-  <si>
-    <t>环境政策与治理</t>
+    <t>三教201</t>
   </si>
   <si>
     <t>前沿讲座 IV</t>
-  </si>
-  <si>
-    <t>孙顺</t>
-  </si>
-  <si>
-    <t>王雨</t>
-  </si>
-  <si>
-    <t>商学院225</t>
   </si>
 </sst>
 </file>
@@ -1118,12 +1124,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1155,6 +1155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,172 +2218,181 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2419,43 +2434,34 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2494,16 +2500,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,22 +2557,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2692,31 +2698,31 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2764,31 +2770,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2908,6 +2914,69 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2917,19 +2986,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2941,193 +3004,136 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3142,7 +3148,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,28 +3163,28 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,25 +3193,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3217,13 +3223,13 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3973,13 +3979,13 @@
       <c r="N11" s="333" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="71" t="s">
+      <c r="O11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="71" t="s">
+      <c r="P11" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="87"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="353" t="s">
         <v>27</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="270"/>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="34" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="63"/>
@@ -4083,7 +4089,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="276"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="36" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="64"/>
@@ -4571,7 +4577,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="187" t="s">
         <v>1</v>
       </c>
@@ -4607,7 +4613,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="236" t="s">
         <v>9</v>
       </c>
@@ -4657,7 +4663,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="196"/>
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
@@ -4701,7 +4707,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="194"/>
       <c r="O4" s="107"/>
       <c r="P4" s="107"/>
@@ -5011,7 +5017,7 @@
       <c r="R16" s="124"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="152" t="s">
@@ -5041,7 +5047,7 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="159" t="s">
         <v>126</v>
       </c>
@@ -5069,7 +5075,7 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="166" t="s">
         <v>127</v>
       </c>
@@ -5242,7 +5248,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="97"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="186"/>
       <c r="D27" s="186"/>
       <c r="E27" s="186"/>
@@ -5260,7 +5266,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="97"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="186"/>
       <c r="D28" s="186"/>
       <c r="E28" s="186"/>
@@ -5278,7 +5284,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="97"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="186"/>
       <c r="D29" s="186"/>
       <c r="E29" s="186"/>
@@ -5296,17 +5302,17 @@
     </row>
     <row r="30" ht="14.75" spans="1:18">
       <c r="A30" s="98"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="Q30" s="90"/>
@@ -5524,7 +5530,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="187" t="s">
         <v>129</v>
       </c>
@@ -5561,7 +5567,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="188" t="s">
         <v>9</v>
       </c>
@@ -6066,7 +6072,7 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="105"/>
@@ -6085,7 +6091,7 @@
       <c r="M17" s="120"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="140"/>
       <c r="C18" s="141"/>
       <c r="D18" s="180" t="s">
@@ -6108,7 +6114,7 @@
       <c r="S18" s="90"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="107"/>
       <c r="C19" s="121"/>
       <c r="D19" s="182" t="s">
@@ -6283,7 +6289,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="97"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="186"/>
       <c r="D27" s="186"/>
       <c r="E27" s="186"/>
@@ -6302,7 +6308,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="97"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="186"/>
       <c r="D28" s="186"/>
       <c r="E28" s="186"/>
@@ -6321,7 +6327,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="97"/>
-      <c r="B29" s="47"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="186"/>
       <c r="D29" s="186"/>
       <c r="E29" s="186"/>
@@ -6340,17 +6346,17 @@
     </row>
     <row r="30" ht="14.75" spans="1:19">
       <c r="A30" s="98"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="Q30" s="90"/>
@@ -6547,7 +6553,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E13"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6567,7 +6573,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="100" t="s">
         <v>1</v>
       </c>
@@ -6603,7 +6609,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="101" t="s">
         <v>9</v>
       </c>
@@ -6653,7 +6659,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="104"/>
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
@@ -6697,7 +6703,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="106"/>
       <c r="O4" s="107"/>
       <c r="P4" s="107"/>
@@ -6710,22 +6716,22 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="56"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="108"/>
       <c r="O5" s="105"/>
       <c r="P5" s="105"/>
@@ -6736,22 +6742,22 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="57"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="106"/>
       <c r="O6" s="107"/>
       <c r="P6" s="107"/>
@@ -6762,22 +6768,22 @@
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="108"/>
       <c r="O7" s="105"/>
       <c r="P7" s="105"/>
@@ -6790,22 +6796,22 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="72"/>
+      <c r="H8" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="106"/>
       <c r="O8" s="107"/>
       <c r="P8" s="107"/>
@@ -6816,22 +6822,22 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="74"/>
+      <c r="H9" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="57"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="104"/>
       <c r="O9" s="105"/>
       <c r="P9" s="105"/>
@@ -6842,22 +6848,22 @@
       <c r="A10" s="7"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="109"/>
       <c r="O10" s="107"/>
       <c r="P10" s="107"/>
@@ -6870,24 +6876,24 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="125" t="s">
         <v>193</v>
       </c>
       <c r="G11" s="126"/>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="30" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="32" t="s">
         <v>194</v>
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="108"/>
       <c r="O11" s="105"/>
       <c r="P11" s="105"/>
@@ -6898,24 +6904,24 @@
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="127" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="128"/>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="58"/>
+      <c r="J12" s="34" t="s">
         <v>197</v>
       </c>
       <c r="K12" s="63"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="106"/>
       <c r="O12" s="107"/>
       <c r="P12" s="107"/>
@@ -6926,24 +6932,24 @@
       <c r="A13" s="7"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="129" t="s">
         <v>199</v>
       </c>
       <c r="G13" s="130"/>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="42" t="s">
+      <c r="I13" s="61"/>
+      <c r="J13" s="36" t="s">
         <v>144</v>
       </c>
       <c r="K13" s="64"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="52"/>
       <c r="N13" s="104"/>
       <c r="O13" s="105"/>
       <c r="P13" s="105"/>
@@ -6956,10 +6962,10 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -6967,7 +6973,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="109"/>
       <c r="O14" s="107"/>
       <c r="P14" s="107"/>
@@ -6978,10 +6984,10 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
@@ -6989,7 +6995,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="104"/>
       <c r="O15" s="105"/>
       <c r="P15" s="105"/>
@@ -7000,10 +7006,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="79"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
@@ -7011,7 +7017,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="110"/>
       <c r="O16" s="111"/>
       <c r="P16" s="111"/>
@@ -7019,10 +7025,10 @@
       <c r="R16" s="124"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>194</v>
       </c>
       <c r="C17" s="62"/>
@@ -7035,7 +7041,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="56"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
@@ -7043,8 +7049,8 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
         <v>197</v>
       </c>
       <c r="C18" s="63"/>
@@ -7057,7 +7063,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
@@ -7065,8 +7071,8 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="37"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36" t="s">
         <v>202</v>
       </c>
       <c r="C19" s="64"/>
@@ -7079,7 +7085,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="90"/>
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
@@ -7101,7 +7107,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
@@ -7121,7 +7127,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="57"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="90"/>
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
@@ -7141,7 +7147,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
@@ -7163,7 +7169,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="65"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
@@ -7183,7 +7189,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="66"/>
-      <c r="M24" s="57"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
@@ -7203,7 +7209,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
       <c r="L25" s="135"/>
-      <c r="M25" s="58"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="90"/>
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
@@ -7214,9 +7220,9 @@
       <c r="A26" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="92" t="s">
@@ -7227,8 +7233,8 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="67"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91"/>
@@ -7260,7 +7266,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="97"/>
-      <c r="B28" s="49"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="133"/>
       <c r="D28" s="133" t="s">
         <v>206</v>
@@ -7306,9 +7312,9 @@
     </row>
     <row r="30" ht="14.75" spans="1:18">
       <c r="A30" s="98"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47" t="s">
         <v>209</v>
       </c>
       <c r="E30" s="99" t="s">
@@ -7319,8 +7325,8 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="O30" s="91"/>
@@ -7541,7 +7547,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="100" t="s">
         <v>1</v>
       </c>
@@ -7577,7 +7583,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="101" t="s">
         <v>9</v>
       </c>
@@ -7627,7 +7633,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="104"/>
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
@@ -7671,7 +7677,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="106"/>
       <c r="O4" s="107"/>
       <c r="P4" s="107"/>
@@ -7686,16 +7692,16 @@
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="56"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="108"/>
       <c r="O5" s="105"/>
       <c r="P5" s="105"/>
@@ -7708,16 +7714,16 @@
       <c r="C6" s="13"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="57"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="106"/>
       <c r="O6" s="107"/>
       <c r="P6" s="107"/>
@@ -7730,16 +7736,16 @@
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="108"/>
       <c r="O7" s="105"/>
       <c r="P7" s="105"/>
@@ -7752,22 +7758,22 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="71" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="106"/>
       <c r="O8" s="107"/>
       <c r="P8" s="107"/>
@@ -7778,22 +7784,22 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="72" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="88"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="57"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="104"/>
       <c r="O9" s="105"/>
       <c r="P9" s="105"/>
@@ -7804,22 +7810,22 @@
       <c r="A10" s="7"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="73" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="109"/>
       <c r="O10" s="107"/>
       <c r="P10" s="107"/>
@@ -7832,22 +7838,22 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>218</v>
       </c>
       <c r="E11" s="62"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="108"/>
       <c r="O11" s="105"/>
       <c r="P11" s="105"/>
@@ -7858,22 +7864,22 @@
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>220</v>
       </c>
       <c r="E12" s="63"/>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="106"/>
       <c r="O12" s="107"/>
       <c r="P12" s="107"/>
@@ -7884,22 +7890,22 @@
       <c r="A13" s="7"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="36" t="s">
         <v>159</v>
       </c>
       <c r="E13" s="64"/>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="76"/>
+      <c r="H13" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="52"/>
       <c r="N13" s="104"/>
       <c r="O13" s="105"/>
       <c r="P13" s="105"/>
@@ -7921,7 +7927,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="109"/>
       <c r="O14" s="107"/>
       <c r="P14" s="107"/>
@@ -7941,7 +7947,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="104"/>
       <c r="O15" s="105"/>
       <c r="P15" s="105"/>
@@ -7961,7 +7967,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="110"/>
       <c r="O16" s="111"/>
       <c r="P16" s="111"/>
@@ -7969,27 +7975,27 @@
       <c r="R16" s="124"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="32" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="56"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
@@ -7997,25 +8003,25 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>225</v>
       </c>
       <c r="E18" s="63"/>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
@@ -8023,25 +8029,25 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="36" t="s">
         <v>228</v>
       </c>
       <c r="E19" s="64"/>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="38" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="90"/>
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
@@ -8054,10 +8060,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -8065,7 +8071,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
@@ -8076,10 +8082,10 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
@@ -8087,7 +8093,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="57"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="90"/>
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
@@ -8098,10 +8104,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="79"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
@@ -8109,7 +8115,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
@@ -8131,7 +8137,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="65"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
@@ -8151,7 +8157,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="66"/>
-      <c r="M24" s="57"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
@@ -8171,7 +8177,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="66"/>
-      <c r="M25" s="57"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="90"/>
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
@@ -8179,12 +8185,12 @@
       <c r="R25" s="90"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="92" t="s">
         <v>232</v>
       </c>
@@ -8193,8 +8199,8 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="112"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91"/>
@@ -8203,12 +8209,12 @@
       <c r="R26" s="90"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="93" t="s">
         <v>233</v>
       </c>
@@ -8217,8 +8223,8 @@
       <c r="H27" s="93"/>
       <c r="I27" s="93"/>
       <c r="J27" s="93"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="113"/>
       <c r="N27" s="90"/>
       <c r="O27" s="91"/>
@@ -8227,7 +8233,7 @@
       <c r="R27" s="90"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="46"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
@@ -8274,11 +8280,11 @@
     </row>
     <row r="30" ht="14.75" spans="1:18">
       <c r="A30" s="98"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="99" t="s">
         <v>236</v>
       </c>
@@ -8287,8 +8293,8 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="O30" s="91"/>
@@ -8509,7 +8515,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -8538,7 +8544,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7"/>
@@ -8575,7 +8581,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
@@ -8614,7 +8620,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
@@ -8624,20 +8630,20 @@
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="71" t="s">
+      <c r="I5" s="55"/>
+      <c r="J5" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="87"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="56"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="11"/>
@@ -8645,20 +8651,20 @@
       <c r="C6" s="13"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="72" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="72" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="88"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="57"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7"/>
@@ -8666,20 +8672,20 @@
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="73" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="73" t="s">
+      <c r="I7" s="61"/>
+      <c r="J7" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="89"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
@@ -8687,119 +8693,119 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="57"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="11"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="38" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
@@ -8807,75 +8813,75 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="I14" s="81"/>
+      <c r="I14" s="84"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="32" t="s">
         <v>257</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="56"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
@@ -8883,23 +8889,23 @@
       <c r="R17" s="90"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="31"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>227</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
@@ -8907,23 +8913,23 @@
       <c r="R18" s="90"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="37"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="36" t="s">
         <v>159</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="90"/>
       <c r="O19" s="90"/>
       <c r="P19" s="90"/>
@@ -8936,10 +8942,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -8947,7 +8953,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
@@ -8958,10 +8964,10 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
@@ -8969,7 +8975,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="57"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="90"/>
       <c r="O21" s="90"/>
       <c r="P21" s="90"/>
@@ -8980,10 +8986,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
@@ -8991,7 +8997,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
       <c r="P22" s="90"/>
@@ -9013,7 +9019,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="65"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
@@ -9033,7 +9039,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="66"/>
-      <c r="M24" s="57"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
       <c r="P24" s="90"/>
@@ -9053,7 +9059,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="66"/>
-      <c r="M25" s="57"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="90"/>
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
@@ -9061,20 +9067,20 @@
       <c r="R25" s="90"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="67"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91"/>
@@ -9083,18 +9089,18 @@
       <c r="R26" s="90"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="68"/>
       <c r="N27" s="90"/>
       <c r="O27" s="91"/>
@@ -9103,18 +9109,18 @@
       <c r="R27" s="90"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="46"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="69"/>
       <c r="N28" s="90"/>
       <c r="O28" s="91"/>
@@ -9123,18 +9129,18 @@
       <c r="R28" s="90"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="69"/>
       <c r="N29" s="90"/>
       <c r="O29" s="91"/>
@@ -9143,18 +9149,18 @@
       <c r="R29" s="90"/>
     </row>
     <row r="30" ht="14.75" spans="1:18">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
       <c r="N30" s="90"/>
       <c r="O30" s="91"/>
@@ -9336,7 +9342,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -9365,7 +9371,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7"/>
@@ -9402,7 +9408,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
@@ -9441,7 +9447,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
@@ -9458,7 +9464,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="56"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="11"/>
@@ -9473,7 +9479,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="57"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7"/>
@@ -9488,7 +9494,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
@@ -9498,16 +9504,16 @@
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="11"/>
@@ -9515,16 +9521,16 @@
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="57"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7"/>
@@ -9532,16 +9538,16 @@
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
@@ -9553,16 +9559,16 @@
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="11"/>
@@ -9572,16 +9578,16 @@
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7"/>
@@ -9591,16 +9597,16 @@
       <c r="E13" s="15"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
@@ -9608,10 +9614,10 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -9619,16 +9625,16 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
@@ -9636,16 +9642,16 @@
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
@@ -9653,10 +9659,10 @@
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="9"/>
@@ -9665,48 +9671,48 @@
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="32" t="s">
         <v>269</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="56"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>270</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="36" t="s">
         <v>159</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
@@ -9714,10 +9720,10 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
@@ -9725,16 +9731,16 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
@@ -9742,16 +9748,16 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="57"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
@@ -9759,7 +9765,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
@@ -9776,7 +9782,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="65"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="11"/>
@@ -9791,7 +9797,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="66"/>
-      <c r="M24" s="57"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7"/>
@@ -9806,83 +9812,83 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="66"/>
-      <c r="M25" s="57"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="67"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="46"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="69"/>
     </row>
     <row r="30" ht="14.75" spans="1:13">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
     </row>
   </sheetData>
@@ -10043,7 +10049,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="L17" sqref="L17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -10063,7 +10069,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="54"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -10092,7 +10098,7 @@
       <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7"/>
@@ -10129,7 +10135,7 @@
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
@@ -10168,7 +10174,7 @@
       <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
@@ -10185,7 +10191,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="56"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="11"/>
@@ -10200,7 +10206,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="57"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7"/>
@@ -10215,7 +10221,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
@@ -10225,14 +10231,16 @@
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="F8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="11"/>
@@ -10240,14 +10248,16 @@
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="57"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7"/>
@@ -10255,14 +10265,16 @@
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="21"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
@@ -10270,64 +10282,70 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="D11" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="55"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12" s="58"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="D13" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="61"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="58"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
@@ -10344,7 +10362,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="56"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11"/>
@@ -10359,7 +10377,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="13"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7"/>
@@ -10374,72 +10392,60 @@
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="s">
-        <v>278</v>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="32" t="s">
+        <v>283</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="56"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="34" t="s">
         <v>270</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="57"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="36" t="s">
         <v>159</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
@@ -10456,7 +10462,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="11"/>
@@ -10471,7 +10477,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="57"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7"/>
@@ -10486,7 +10492,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
@@ -10503,7 +10509,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="65"/>
-      <c r="M23" s="56"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="11"/>
@@ -10518,7 +10524,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="66"/>
-      <c r="M24" s="57"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7"/>
@@ -10533,83 +10539,83 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="66"/>
-      <c r="M25" s="57"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="67"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="68"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="46"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="69"/>
     </row>
     <row r="30" ht="14.75" spans="1:13">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="70"/>
     </row>
   </sheetData>
